--- a/Schedule_AWS_Developer_MinhHT.xlsx
+++ b/Schedule_AWS_Developer_MinhHT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang Minh\source\repos\001_Project_PS\aws\aws-dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\aws-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB716982-29A9-4D8F-A3C5-8BDAE49B86F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22881D3D-628D-4BFC-AA05-A8FB1F21EED7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="752">
   <si>
     <t>ID</t>
   </si>
@@ -2273,6 +2273,12 @@
   </si>
   <si>
     <t xml:space="preserve">         001 Course Introduction - AWS Certified Developer Associate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-05-16: 12h</t>
+  </si>
+  <si>
+    <t>2020-05-16:  9h</t>
   </si>
 </sst>
 </file>
@@ -2322,12 +2328,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2669,7 +2676,7 @@
   <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,8 +2686,8 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3089,14 +3096,14 @@
       <c r="E16" t="s">
         <v>61</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3115,8 +3122,8 @@
       <c r="E17" t="s">
         <v>64</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
+      <c r="F17" s="3">
+        <v>1</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -3141,8 +3148,8 @@
       <c r="E18" t="s">
         <v>67</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
+      <c r="F18" s="3">
+        <v>1</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -3167,8 +3174,8 @@
       <c r="E19" t="s">
         <v>71</v>
       </c>
-      <c r="F19" t="s">
-        <v>12</v>
+      <c r="F19" s="3">
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -3193,8 +3200,8 @@
       <c r="E20" t="s">
         <v>75</v>
       </c>
-      <c r="F20" t="s">
-        <v>12</v>
+      <c r="F20" s="3">
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -3219,8 +3226,8 @@
       <c r="E21" t="s">
         <v>79</v>
       </c>
-      <c r="F21" t="s">
-        <v>12</v>
+      <c r="F21" s="3">
+        <v>1</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -3245,8 +3252,8 @@
       <c r="E22" t="s">
         <v>82</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
+      <c r="F22" s="3">
+        <v>1</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -3271,8 +3278,8 @@
       <c r="E23" t="s">
         <v>86</v>
       </c>
-      <c r="F23" t="s">
-        <v>12</v>
+      <c r="F23" s="3">
+        <v>1</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -3297,8 +3304,8 @@
       <c r="E24" t="s">
         <v>89</v>
       </c>
-      <c r="F24" t="s">
-        <v>12</v>
+      <c r="F24" s="3">
+        <v>1</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -3323,8 +3330,8 @@
       <c r="E25" t="s">
         <v>92</v>
       </c>
-      <c r="F25" t="s">
-        <v>12</v>
+      <c r="F25" s="3">
+        <v>1</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -3349,8 +3356,8 @@
       <c r="E26" t="s">
         <v>95</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
+      <c r="F26" s="3">
+        <v>1</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -3375,8 +3382,8 @@
       <c r="E27" t="s">
         <v>98</v>
       </c>
-      <c r="F27" t="s">
-        <v>12</v>
+      <c r="F27" s="3">
+        <v>1</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -3401,8 +3408,8 @@
       <c r="E28" t="s">
         <v>101</v>
       </c>
-      <c r="F28" t="s">
-        <v>12</v>
+      <c r="F28" s="3">
+        <v>1</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -3427,8 +3434,8 @@
       <c r="E29" t="s">
         <v>104</v>
       </c>
-      <c r="F29" t="s">
-        <v>12</v>
+      <c r="F29" s="3">
+        <v>1</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -3453,8 +3460,8 @@
       <c r="E30" t="s">
         <v>107</v>
       </c>
-      <c r="F30" t="s">
-        <v>12</v>
+      <c r="F30" s="3">
+        <v>1</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -3479,8 +3486,8 @@
       <c r="E31" t="s">
         <v>111</v>
       </c>
-      <c r="F31" t="s">
-        <v>12</v>
+      <c r="F31" s="3">
+        <v>1</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
@@ -3505,8 +3512,8 @@
       <c r="E32" t="s">
         <v>114</v>
       </c>
-      <c r="F32" t="s">
-        <v>12</v>
+      <c r="F32" s="3">
+        <v>1</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
@@ -3531,8 +3538,8 @@
       <c r="E33" t="s">
         <v>117</v>
       </c>
-      <c r="F33" t="s">
-        <v>12</v>
+      <c r="F33" s="3">
+        <v>1</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -3557,8 +3564,8 @@
       <c r="E34" t="s">
         <v>61</v>
       </c>
-      <c r="F34" t="s">
-        <v>12</v>
+      <c r="F34" s="3">
+        <v>1</v>
       </c>
       <c r="G34" t="s">
         <v>13</v>

--- a/Schedule_AWS_Developer_MinhHT.xlsx
+++ b/Schedule_AWS_Developer_MinhHT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\aws-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22881D3D-628D-4BFC-AA05-A8FB1F21EED7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DFD575-97D3-4EE4-8EC2-8B984A34F660}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="754">
   <si>
     <t>ID</t>
   </si>
@@ -2279,6 +2279,12 @@
   </si>
   <si>
     <t>2020-05-16:  9h</t>
+  </si>
+  <si>
+    <t>2020-05-17:  9h</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-05-17: 12h</t>
   </si>
 </sst>
 </file>
@@ -2675,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3590,14 +3596,14 @@
       <c r="E35" t="s">
         <v>123</v>
       </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3616,8 +3622,8 @@
       <c r="E36" t="s">
         <v>127</v>
       </c>
-      <c r="F36" t="s">
-        <v>12</v>
+      <c r="F36" s="3">
+        <v>1</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -3642,8 +3648,8 @@
       <c r="E37" t="s">
         <v>131</v>
       </c>
-      <c r="F37" t="s">
-        <v>12</v>
+      <c r="F37" s="3">
+        <v>1</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
@@ -3668,8 +3674,8 @@
       <c r="E38" t="s">
         <v>135</v>
       </c>
-      <c r="F38" t="s">
-        <v>12</v>
+      <c r="F38" s="3">
+        <v>1</v>
       </c>
       <c r="G38" t="s">
         <v>13</v>
@@ -3694,8 +3700,8 @@
       <c r="E39" t="s">
         <v>138</v>
       </c>
-      <c r="F39" t="s">
-        <v>12</v>
+      <c r="F39" s="3">
+        <v>1</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
@@ -3720,8 +3726,8 @@
       <c r="E40" t="s">
         <v>141</v>
       </c>
-      <c r="F40" t="s">
-        <v>12</v>
+      <c r="F40" s="3">
+        <v>1</v>
       </c>
       <c r="G40" t="s">
         <v>13</v>
@@ -3746,8 +3752,8 @@
       <c r="E41" t="s">
         <v>123</v>
       </c>
-      <c r="F41" t="s">
-        <v>12</v>
+      <c r="F41" s="3">
+        <v>1</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
